--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Lituanie/Pandémie_de_Covid-19_en_Lituanie.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Lituanie/Pandémie_de_Covid-19_en_Lituanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Lituanie</t>
+          <t>Pandémie_de_Covid-19_en_Lituanie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Lituanie démarre officiellement le 28 février 2020. À la date du 17 septembre 2022, le bilan est de 9 304 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Lituanie</t>
+          <t>Pandémie_de_Covid-19_en_Lituanie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Lituanie</t>
+          <t>Pandémie_de_Covid-19_en_Lituanie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Lituanie</t>
+          <t>Pandémie_de_Covid-19_en_Lituanie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,14 +585,16 @@
           <t>Vaccination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 D'après l'ECDC tracker, la Lithuanue a un taux de vaccination moindre que la moyenne européenne.
 Au 20 aout 2021, le taux de vaccination des adultes est de 65,8 % pour la première dose (contre 74,8 % pour l'UE ou 74,9 % pour l'EEE) et de 58,2 % pour la vaccination complète contre 65,4 %pour l'union européenne.
 En considérant la population totale, le taux de vaccination est de 48,8 % en Lituanie pour 54,1 % dans l'UE.
 [réf. nécessaire]
-Au total, plus de 1 363 000 personnes ont été pleinement vaccinées[2].[réf. incomplète]
+Au total, plus de 1 363 000 personnes ont été pleinement vaccinées.[réf. incomplète]
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Lituanie</t>
+          <t>Pandémie_de_Covid-19_en_Lituanie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Certificat Covid</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Galimybių pasą (litt. « passe d'opportunités ») est un certificat Covid numérique de l'union européenne, mis en place à partir du 24 mai 2021 pour accéder à certains lieux comme les restaurants, casinos ou grands événements, qui sont toutefois soumis à une jauge de 500 spectateurs et ne doivent pas excéder 75 % de leurs capacités d'accueil pour ce qui est des places assises en lieux clos[3]. À compter du 13 septembre 2021, il sera également requis pour emprunter les transports en commun du territoire[4],[5], pénétrer dans les commerces dits « non essentiels » de plus de 1 500 m2 ou encore les instituts de beauté de type salon de coiffure[6]. Le site officiel gp.esveikata.lt permet de se le procurer.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Galimybių pasą (litt. « passe d'opportunités ») est un certificat Covid numérique de l'union européenne, mis en place à partir du 24 mai 2021 pour accéder à certains lieux comme les restaurants, casinos ou grands événements, qui sont toutefois soumis à une jauge de 500 spectateurs et ne doivent pas excéder 75 % de leurs capacités d'accueil pour ce qui est des places assises en lieux clos. À compter du 13 septembre 2021, il sera également requis pour emprunter les transports en commun du territoire pénétrer dans les commerces dits « non essentiels » de plus de 1 500 m2 ou encore les instituts de beauté de type salon de coiffure. Le site officiel gp.esveikata.lt permet de se le procurer.
 </t>
         </is>
       </c>
